--- a/biology/Zoologie/Chrysiptera_hemicyanea/Chrysiptera_hemicyanea.xlsx
+++ b/biology/Zoologie/Chrysiptera_hemicyanea/Chrysiptera_hemicyanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysiptera hemicyanea ou demoiselle bleu-ciel est une espèce de poissons de la famille des Pomacentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure adulte une taille maximal avoisinant les 7 centimètres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure adulte une taille maximal avoisinant les 7 centimètres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans son milieu entre 1 et 38 mètres de profondeur[2]. Adultes, ils habitent plus largement les lagons et les récifs près de la rive, généralement parmi les coraux branchus. On les rencontre dans de petite agrégation, habituellement avec les coraux Acropora[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans son milieu entre 1 et 38 mètres de profondeur. Adultes, ils habitent plus largement les lagons et les récifs près de la rive, généralement parmi les coraux branchus. On les rencontre dans de petite agrégation, habituellement avec les coraux Acropora.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demoiselle bleu-ciel se nourrit de plancton au-dessus du substrat[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demoiselle bleu-ciel se nourrit de plancton au-dessus du substrat.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ovipares, se distingue difficilement sauf pendant la reproduction. Les œufs sont démersaux et adhèrent au substrat. C'est le mâle qui garde et aère les œufs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ovipares, se distingue difficilement sauf pendant la reproduction. Les œufs sont démersaux et adhèrent au substrat. C'est le mâle qui garde et aère les œufs.
 </t>
         </is>
       </c>
